--- a/data/trans_orig/P69_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5CD231E-D2C4-4245-9DF4-BAD87F6A19B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAD868F-7576-4E81-ADF1-863BAB6E39B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5EBC47-525F-4954-BFC2-09B97031F5A0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{782B33A4-4489-4933-96DC-F55F4FAB646F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="292">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>90,43%</t>
+    <t>88,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>98,64%</t>
   </si>
   <si>
-    <t>91,81%</t>
+    <t>93,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,57%</t>
+    <t>11,72%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>8,19%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -224,7 +224,7 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>92,89%</t>
+    <t>92,74%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -233,13 +233,13 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>94,89%</t>
+    <t>95,26%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>7,11%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -248,7 +248,7 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>4,74%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -257,7 +257,7 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,32%</t>
+    <t>95,3%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -266,13 +266,13 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,73%</t>
+    <t>96,77%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -281,12 +281,15 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
+    <t>98,13%</t>
+  </si>
+  <si>
     <t>99,79%</t>
   </si>
   <si>
@@ -296,157 +299,178 @@
     <t>99,44%</t>
   </si>
   <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
     <t>98,62%</t>
   </si>
   <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2015 (Tasa respuesta: 8,05%)</t>
@@ -455,7 +479,7 @@
     <t>98,32%</t>
   </si>
   <si>
-    <t>92,9%</t>
+    <t>91,35%</t>
   </si>
   <si>
     <t>95,22%</t>
@@ -464,13 +488,13 @@
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,91%</t>
+    <t>94,98%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>7,1%</t>
+    <t>8,65%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -479,7 +503,7 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>5,02%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -533,25 +557,25 @@
     <t>95,39%</t>
   </si>
   <si>
-    <t>80,65%</t>
+    <t>78,31%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>85,51%</t>
+    <t>82,61%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>21,69%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>14,49%</t>
+    <t>17,39%</t>
   </si>
   <si>
     <t>97,26%</t>
@@ -560,13 +584,13 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>91,74%</t>
+    <t>88,03%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -575,19 +599,19 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>8,26%</t>
+    <t>11,97%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>84,71%</t>
+    <t>84,79%</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -596,13 +620,13 @@
     <t>96,91%</t>
   </si>
   <si>
-    <t>88,04%</t>
+    <t>90,46%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>15,29%</t>
+    <t>15,21%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -611,120 +635,132 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>11,96%</t>
+    <t>9,54%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
     <t>1,03%</t>
   </si>
   <si>
@@ -815,9 +851,6 @@
     <t>90,12%</t>
   </si>
   <si>
-    <t>98,77%</t>
-  </si>
-  <si>
     <t>94,3%</t>
   </si>
   <si>
@@ -831,9 +864,6 @@
   </si>
   <si>
     <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
   </si>
   <si>
     <t>5,7%</t>
@@ -1296,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C6571-9C1F-46BC-8B1B-40F56334D96C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49E33AE-4940-439F-BA29-48D391DB8EEC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2663,10 +2693,10 @@
         <v>81</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -2678,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -2690,13 +2720,13 @@
         <v>688572</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2741,13 @@
         <v>3855</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2732,7 +2762,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2741,13 +2771,13 @@
         <v>3855</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2833,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11CD11D-A342-4B41-9E6D-0AAA90361FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FEB0C-D49B-466E-B4B9-4A559D2A620C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2844,7 +2874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2949,39 +2979,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,39 +3024,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,39 +3069,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -3106,7 +3136,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3121,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -3145,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3160,7 +3190,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3175,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3315,7 +3345,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3401,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -3416,7 +3446,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3431,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3455,7 +3485,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3470,7 +3500,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3485,7 +3515,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3586,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -3571,7 +3601,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3610,7 +3640,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3625,7 +3655,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3726,7 +3756,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3741,7 +3771,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3780,7 +3810,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3795,7 +3825,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,10 +3893,10 @@
         <v>53617</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3881,7 +3911,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3893,10 +3923,10 @@
         <v>99997</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3914,13 +3944,13 @@
         <v>813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3935,7 +3965,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3944,13 +3974,13 @@
         <v>813</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,7 +4051,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -4051,7 +4081,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -4075,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4105,7 +4135,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,10 +4203,10 @@
         <v>330639</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4191,7 +4221,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -4203,10 +4233,10 @@
         <v>546466</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4224,13 +4254,13 @@
         <v>813</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4245,7 +4275,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4254,13 +4284,13 @@
         <v>813</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,7 +4346,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D478946E-9C65-4C2A-8AB6-01884B88081B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919A7875-4C90-4CD4-89DD-AE9B2B439298}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,7 +4387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4464,10 +4494,10 @@
         <v>57594</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4482,7 +4512,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4494,10 +4524,10 @@
         <v>98478</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4515,13 +4545,13 @@
         <v>983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4536,7 +4566,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4545,13 +4575,13 @@
         <v>983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4637,7 +4667,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4652,7 +4682,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -4676,7 +4706,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4691,7 +4721,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4706,7 +4736,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4822,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4846,7 +4876,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4932,7 +4962,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4962,7 +4992,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -4986,7 +5016,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5016,7 +5046,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -5102,7 +5132,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5117,7 +5147,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -5141,7 +5171,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5156,7 +5186,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5171,7 +5201,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,10 +5269,10 @@
         <v>21399</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -5269,10 +5299,10 @@
         <v>28825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5290,13 +5320,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5320,13 +5350,13 @@
         <v>1035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,7 +5427,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5409,10 +5439,10 @@
         <v>54570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5424,10 +5454,10 @@
         <v>132912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5451,7 +5481,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5460,13 +5490,13 @@
         <v>1112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -5475,13 +5505,13 @@
         <v>1112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,10 +5579,10 @@
         <v>37402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5567,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5579,10 +5609,10 @@
         <v>58802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5600,13 +5630,13 @@
         <v>1872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5621,7 +5651,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5630,13 +5660,13 @@
         <v>1872</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5734,13 @@
         <v>346111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -5719,10 +5749,10 @@
         <v>215186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5734,13 +5764,13 @@
         <v>561297</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5785,13 @@
         <v>3890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5770,13 +5800,13 @@
         <v>1112</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -5785,13 +5815,13 @@
         <v>5002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,7 +5877,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5871,7 +5901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3480FA-5FB4-457F-8055-C6CE08E8E6F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F834BE4-A4A7-4E53-B870-980BECEA9034}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5888,7 +5918,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5998,7 +6028,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -6013,7 +6043,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -6028,7 +6058,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -6052,7 +6082,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6067,7 +6097,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6082,7 +6112,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,7 +6183,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -6165,13 +6195,13 @@
         <v>46915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -6180,13 +6210,13 @@
         <v>92916</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,7 +6237,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6216,13 +6246,13 @@
         <v>1706</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6231,13 +6261,13 @@
         <v>1706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,10 +6335,10 @@
         <v>49703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -6323,7 +6353,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -6335,10 +6365,10 @@
         <v>98624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -6356,13 +6386,13 @@
         <v>1027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6377,7 +6407,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -6386,13 +6416,13 @@
         <v>1027</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,7 +6493,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -6478,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -6517,7 +6547,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6532,7 +6562,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6615,10 +6645,10 @@
         <v>18673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -6630,10 +6660,10 @@
         <v>11526</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -6645,10 +6675,10 @@
         <v>30198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -6666,13 +6696,13 @@
         <v>769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6681,13 +6711,13 @@
         <v>455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -6696,13 +6726,13 @@
         <v>1224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,7 +6803,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -6785,10 +6815,10 @@
         <v>31525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -6800,10 +6830,10 @@
         <v>64231</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -6827,7 +6857,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6836,13 +6866,13 @@
         <v>946</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6851,13 +6881,13 @@
         <v>946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,7 +6958,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -6943,7 +6973,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -6958,7 +6988,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -6982,7 +7012,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6997,7 +7027,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7012,7 +7042,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,10 +7110,10 @@
         <v>65872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -7095,10 +7125,10 @@
         <v>66310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -7110,10 +7140,10 @@
         <v>132181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -7131,13 +7161,13 @@
         <v>1184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7146,13 +7176,13 @@
         <v>826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7161,13 +7191,13 @@
         <v>2010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,13 +7265,13 @@
         <v>350039</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>468</v>
@@ -7250,13 +7280,13 @@
         <v>357279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M28" s="7">
         <v>803</v>
@@ -7265,13 +7295,13 @@
         <v>707316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,13 +7316,13 @@
         <v>2979</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -7301,13 +7331,13 @@
         <v>3932</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -7316,13 +7346,13 @@
         <v>6912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,7 +7408,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P69_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAD868F-7576-4E81-ADF1-863BAB6E39B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCCF2E04-EDBB-4A20-A522-4764D9A965D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{782B33A4-4489-4933-96DC-F55F4FAB646F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{074DCBAF-7E91-4AB2-BB23-02F1AF10B1DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="294">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>88,28%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>98,64%</t>
   </si>
   <si>
-    <t>93,77%</t>
+    <t>92,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,72%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>6,23%</t>
+    <t>7,62%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -224,7 +224,7 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>92,74%</t>
+    <t>91,67%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -233,13 +233,13 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>95,26%</t>
+    <t>95,31%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>7,26%</t>
+    <t>8,33%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -248,7 +248,7 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>4,69%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -257,7 +257,7 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,3%</t>
+    <t>95,15%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -266,13 +266,13 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,77%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>4,85%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -281,16 +281,16 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -299,7 +299,7 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,71%</t>
+    <t>98,57%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -308,10 +308,10 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -323,7 +323,7 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -404,7 +404,7 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,0%</t>
+    <t>93,68%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -413,13 +413,13 @@
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,33%</t>
+    <t>96,66%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>8,0%</t>
+    <t>6,32%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -428,7 +428,7 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,67%</t>
+    <t>3,34%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -446,439 +446,433 @@
     <t>99,75%</t>
   </si>
   <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>7,03%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,53%</t>
+    <t>97,65%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -887,13 +881,19 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>99,58%</t>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>99,56%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -902,19 +902,25 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,35%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49E33AE-4940-439F-BA29-48D391DB8EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC4178-674B-4A70-AFFB-F440DCB4E2BC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2857,7 +2863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FEB0C-D49B-466E-B4B9-4A559D2A620C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F3DB97-4E45-45E7-80B5-ACE46D27239B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4370,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919A7875-4C90-4CD4-89DD-AE9B2B439298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546ED71F-A2A9-4570-98AF-2CBA8369427E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,7 +4503,7 @@
         <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4512,7 +4518,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4524,10 +4530,10 @@
         <v>98478</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4545,13 +4551,13 @@
         <v>983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4566,7 +4572,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4575,13 +4581,13 @@
         <v>983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,7 +4658,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4667,7 +4673,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4682,7 +4688,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -4706,7 +4712,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4721,7 +4727,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4736,7 +4742,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4876,7 +4882,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4962,7 +4968,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4992,7 +4998,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -5016,7 +5022,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5046,7 +5052,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,7 +5123,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -5132,7 +5138,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5147,7 +5153,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -5171,7 +5177,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5186,7 +5192,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5201,7 +5207,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,10 +5275,10 @@
         <v>21399</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -5299,10 +5305,10 @@
         <v>28825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5320,13 +5326,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5350,13 +5356,13 @@
         <v>1035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,7 +5433,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5439,10 +5445,10 @@
         <v>54570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5454,10 +5460,10 @@
         <v>132912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5481,7 +5487,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5490,13 +5496,13 @@
         <v>1112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -5505,13 +5511,13 @@
         <v>1112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,10 +5585,10 @@
         <v>37402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5597,7 +5603,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5609,10 +5615,10 @@
         <v>58802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5630,13 +5636,13 @@
         <v>1872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5651,7 +5657,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5660,13 +5666,13 @@
         <v>1872</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5740,13 @@
         <v>346111</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -5749,10 +5755,10 @@
         <v>215186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5764,13 +5770,13 @@
         <v>561297</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5791,13 @@
         <v>3890</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5800,13 +5806,13 @@
         <v>1112</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -5815,13 +5821,13 @@
         <v>5002</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,7 +5907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F834BE4-A4A7-4E53-B870-980BECEA9034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B48D3D-500F-42F8-BA95-09AA535AD075}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5918,7 +5924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6028,7 +6034,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -6043,7 +6049,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -6082,7 +6088,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6097,7 +6103,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6183,7 +6189,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -6195,13 +6201,13 @@
         <v>46915</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -6210,13 +6216,13 @@
         <v>92916</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,7 +6243,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6246,13 +6252,13 @@
         <v>1706</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6261,13 +6267,13 @@
         <v>1706</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,10 +6341,10 @@
         <v>49703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -6353,7 +6359,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -6365,10 +6371,10 @@
         <v>98624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -6386,13 +6392,13 @@
         <v>1027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6407,7 +6413,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -6416,13 +6422,13 @@
         <v>1027</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,7 +6499,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -6508,7 +6514,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -6547,7 +6553,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6562,7 +6568,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6645,10 +6651,10 @@
         <v>18673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -6660,10 +6666,10 @@
         <v>11526</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -6675,10 +6681,10 @@
         <v>30198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -6696,13 +6702,13 @@
         <v>769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6711,13 +6717,13 @@
         <v>455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -6726,13 +6732,13 @@
         <v>1224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,7 +6809,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -6815,10 +6821,10 @@
         <v>31525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -6830,10 +6836,10 @@
         <v>64231</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -6857,7 +6863,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6866,13 +6872,13 @@
         <v>946</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6881,13 +6887,13 @@
         <v>946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,7 +6964,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -6973,7 +6979,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -6988,7 +6994,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -7012,7 +7018,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7027,7 +7033,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7042,7 +7048,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,10 +7116,10 @@
         <v>65872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -7125,10 +7131,10 @@
         <v>66310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -7140,10 +7146,10 @@
         <v>132181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -7161,13 +7167,13 @@
         <v>1184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7176,13 +7182,13 @@
         <v>826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7191,13 +7197,13 @@
         <v>2010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7271,13 @@
         <v>350039</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>468</v>
@@ -7280,13 +7286,13 @@
         <v>357279</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M28" s="7">
         <v>803</v>
@@ -7295,10 +7301,10 @@
         <v>707316</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>284</v>
@@ -7337,7 +7343,7 @@
         <v>289</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -7346,13 +7352,13 @@
         <v>6912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P69_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCCF2E04-EDBB-4A20-A522-4764D9A965D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54E801B-6A2F-4816-93B8-5125D0227966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{074DCBAF-7E91-4AB2-BB23-02F1AF10B1DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B311DFEB-9ADD-4551-8068-73D50AB43ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="282">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>88,15%</t>
+    <t>90,43%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>98,64%</t>
   </si>
   <si>
-    <t>92,38%</t>
+    <t>91,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,85%</t>
+    <t>9,57%</t>
   </si>
   <si>
     <t>0%</t>
@@ -116,7 +116,7 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>7,62%</t>
+    <t>8,19%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -224,7 +224,7 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>91,67%</t>
+    <t>92,89%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -233,13 +233,13 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>95,31%</t>
+    <t>94,89%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>8,33%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -248,7 +248,7 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -257,7 +257,7 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,15%</t>
+    <t>95,32%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -266,13 +266,13 @@
     <t>99,36%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -281,16 +281,13 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -299,19 +296,16 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,21%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -320,10 +314,10 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -365,18 +359,12 @@
     <t>96,58%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
     <t>2,28%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
     <t>88,85%</t>
   </si>
   <si>
@@ -404,7 +392,7 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>93,68%</t>
+    <t>91,59%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -413,13 +401,13 @@
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>95,67%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>6,32%</t>
+    <t>8,41%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -428,7 +416,7 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>4,33%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -446,58 +434,52 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>98,86%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2016 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
+    <t>92,9%</t>
+  </si>
+  <si>
     <t>95,22%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,94%</t>
+    <t>94,91%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
+    <t>7,1%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,06%</t>
+    <t>5,09%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -551,25 +533,25 @@
     <t>95,39%</t>
   </si>
   <si>
-    <t>80,96%</t>
+    <t>80,65%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>84,41%</t>
+    <t>85,51%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>19,04%</t>
+    <t>19,35%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>15,59%</t>
+    <t>14,49%</t>
   </si>
   <si>
     <t>97,26%</t>
@@ -578,13 +560,13 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>91,74%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>94,67%</t>
+    <t>95,74%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -593,19 +575,19 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>8,26%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>5,33%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>85,17%</t>
+    <t>84,71%</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -614,13 +596,13 @@
     <t>96,91%</t>
   </si>
   <si>
-    <t>90,25%</t>
+    <t>88,04%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>14,83%</t>
+    <t>15,29%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -629,28 +611,28 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>9,75%</t>
+    <t>11,96%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,02%</t>
+    <t>97,3%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,01%</t>
+    <t>98,1%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -659,16 +641,16 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -677,7 +659,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
@@ -695,16 +677,13 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>89,39%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>94,66%</t>
+    <t>93,48%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -716,10 +695,7 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>10,61%</t>
   </si>
   <si>
     <t>1,8%</t>
@@ -728,16 +704,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>6,52%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>89,0%</t>
   </si>
   <si>
     <t>98,97%</t>
@@ -749,10 +722,7 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>11,0%</t>
   </si>
   <si>
     <t>1,03%</t>
@@ -770,61 +740,61 @@
     <t>96,04%</t>
   </si>
   <si>
-    <t>77,09%</t>
+    <t>78,83%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>80,05%</t>
+    <t>78,25%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>86,53%</t>
+    <t>87,66%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>22,91%</t>
+    <t>21,17%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>19,95%</t>
+    <t>21,75%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>13,47%</t>
+    <t>12,34%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>85,35%</t>
+    <t>85,55%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>92,46%</t>
+    <t>92,85%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>14,65%</t>
+    <t>14,45%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>7,54%</t>
+    <t>7,15%</t>
   </si>
   <si>
     <t>98,16%</t>
@@ -842,37 +812,43 @@
     <t>98,23%</t>
   </si>
   <si>
-    <t>91,0%</t>
+    <t>90,12%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>92,97%</t>
+    <t>94,3%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
+    <t>94,24%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>9,0%</t>
+    <t>9,88%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>5,7%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
+    <t>5,76%</t>
+  </si>
+  <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,65%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -881,46 +857,34 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,68%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC4178-674B-4A70-AFFB-F440DCB4E2BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58D7CFC-27F2-468E-BA7D-9E287B89C1FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2699,10 +2663,10 @@
         <v>81</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -2714,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -2726,13 +2690,13 @@
         <v>688572</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2711,13 @@
         <v>3855</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2768,7 +2732,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2777,13 +2741,13 @@
         <v>3855</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,7 +2803,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F3DB97-4E45-45E7-80B5-ACE46D27239B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51874D00-02D8-459D-8A18-E603852BDA2F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2880,7 +2844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,39 +2949,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,39 +2994,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,39 +3039,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3091,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -3142,7 +3106,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3157,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -3181,7 +3145,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3196,7 +3160,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3211,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3261,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3351,7 +3315,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3437,7 +3401,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -3452,7 +3416,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3467,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3491,7 +3455,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3506,7 +3470,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3521,7 +3485,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -3607,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3646,7 +3610,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3661,7 +3625,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3762,7 +3726,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3777,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3816,7 +3780,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3831,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,10 +3863,10 @@
         <v>53617</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3917,7 +3881,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3929,10 +3893,10 @@
         <v>99997</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3950,13 +3914,13 @@
         <v>813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3971,7 +3935,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3980,13 +3944,13 @@
         <v>813</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,7 +4021,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -4087,7 +4051,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -4111,7 +4075,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4141,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,10 +4173,10 @@
         <v>330639</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4227,7 +4191,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -4239,10 +4203,10 @@
         <v>546466</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4260,13 +4224,13 @@
         <v>813</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4281,7 +4245,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4290,13 +4254,13 @@
         <v>813</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4316,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546ED71F-A2A9-4570-98AF-2CBA8369427E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6295198F-C62F-4EF6-A672-BFAE66272127}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4357,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4500,10 +4464,10 @@
         <v>57594</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4518,7 +4482,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4530,10 +4494,10 @@
         <v>98478</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4551,13 +4515,13 @@
         <v>983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4572,7 +4536,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4581,13 +4545,13 @@
         <v>983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,7 +4622,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4673,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4688,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -4712,7 +4676,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4727,7 +4691,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4742,7 +4706,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4792,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4882,7 +4846,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4968,7 +4932,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4998,7 +4962,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -5022,7 +4986,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5052,7 +5016,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,7 +5087,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -5138,7 +5102,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5153,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -5177,7 +5141,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5192,7 +5156,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5207,7 +5171,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,10 +5239,10 @@
         <v>21399</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -5305,10 +5269,10 @@
         <v>28825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5326,13 +5290,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5356,13 +5320,13 @@
         <v>1035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5397,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5445,10 +5409,10 @@
         <v>54570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5460,10 +5424,10 @@
         <v>132912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5487,7 +5451,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5496,13 +5460,13 @@
         <v>1112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -5511,13 +5475,13 @@
         <v>1112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,10 +5549,10 @@
         <v>37402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5603,7 +5567,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5615,10 +5579,10 @@
         <v>58802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5636,13 +5600,13 @@
         <v>1872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5657,7 +5621,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5666,13 +5630,13 @@
         <v>1872</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5704,13 @@
         <v>346111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -5755,10 +5719,10 @@
         <v>215186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5770,13 +5734,13 @@
         <v>561297</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5755,13 @@
         <v>3890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5806,13 +5770,13 @@
         <v>1112</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -5821,13 +5785,13 @@
         <v>5002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,7 +5847,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5907,7 +5871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B48D3D-500F-42F8-BA95-09AA535AD075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E93764C-D9D5-4636-88E2-F69A7CF75F2E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5924,7 +5888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6034,7 +5998,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -6049,7 +6013,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -6064,7 +6028,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -6088,7 +6052,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6103,7 +6067,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6118,7 +6082,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,7 +6153,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -6201,13 +6165,13 @@
         <v>46915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -6216,13 +6180,13 @@
         <v>92916</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,7 +6207,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6252,13 +6216,13 @@
         <v>1706</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6267,13 +6231,13 @@
         <v>1706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,10 +6305,10 @@
         <v>49703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -6359,7 +6323,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -6371,10 +6335,10 @@
         <v>98624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -6392,13 +6356,13 @@
         <v>1027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6413,7 +6377,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -6422,13 +6386,13 @@
         <v>1027</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,7 +6463,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -6514,7 +6478,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -6553,7 +6517,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6568,7 +6532,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6651,10 +6615,10 @@
         <v>18673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -6666,10 +6630,10 @@
         <v>11526</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -6681,10 +6645,10 @@
         <v>30198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -6702,13 +6666,13 @@
         <v>769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6717,13 +6681,13 @@
         <v>455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -6732,13 +6696,13 @@
         <v>1224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,7 +6773,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -6821,10 +6785,10 @@
         <v>31525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -6836,10 +6800,10 @@
         <v>64231</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -6863,7 +6827,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6872,13 +6836,13 @@
         <v>946</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6887,13 +6851,13 @@
         <v>946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,7 +6928,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -6979,7 +6943,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -6994,7 +6958,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -7018,7 +6982,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7033,7 +6997,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7048,7 +7012,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,10 +7080,10 @@
         <v>65872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -7131,10 +7095,10 @@
         <v>66310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -7146,10 +7110,10 @@
         <v>132181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -7167,13 +7131,13 @@
         <v>1184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7182,13 +7146,13 @@
         <v>826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7197,13 +7161,13 @@
         <v>2010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7235,13 @@
         <v>350039</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H28" s="7">
         <v>468</v>
@@ -7286,13 +7250,13 @@
         <v>357279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M28" s="7">
         <v>803</v>
@@ -7301,13 +7265,13 @@
         <v>707316</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7286,13 @@
         <v>2979</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -7337,13 +7301,13 @@
         <v>3932</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -7352,13 +7316,13 @@
         <v>6912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,7 +7378,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P69_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P69_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54E801B-6A2F-4816-93B8-5125D0227966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B5F661-8654-4F58-9A53-1A6162F7A75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B311DFEB-9ADD-4551-8068-73D50AB43ED2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B7882358-75DB-4CEA-922A-97EEC9DAA360}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="279">
   <si>
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -326,7 +326,22 @@
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2012 (Tasa respuesta: 7,93%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -353,16 +368,22 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -395,9 +416,6 @@
     <t>91,59%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
@@ -410,9 +428,6 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -458,9 +473,6 @@
     <t>92,9%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
     <t>99,01%</t>
   </si>
   <si>
@@ -473,9 +485,6 @@
     <t>7,1%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
@@ -665,70 +674,70 @@
     <t>Población que considera que tiene problemas de salud a causa del trabajo en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>97,1%</t>
@@ -737,64 +746,58 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>98,16%</t>
@@ -809,82 +812,70 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58D7CFC-27F2-468E-BA7D-9E287B89C1FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093F64AA-C935-43B6-AC05-62721851A6F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2827,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51874D00-02D8-459D-8A18-E603852BDA2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7419B125-8DB9-43ED-9A3C-C71FA799B57F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2945,43 +2936,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D4" s="7">
+        <v>40373</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I4" s="7">
+        <v>30145</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="N4" s="7">
+        <v>70518</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,41 +2989,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,43 +3038,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40373</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="7">
+        <v>30145</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="N6" s="7">
+        <v>70518</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,7 +3100,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -3106,7 +3115,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3121,7 +3130,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -3145,7 +3154,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3160,7 +3169,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3175,7 +3184,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,7 +3270,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3315,7 +3324,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3392,46 +3401,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>87440</v>
+        <v>47068</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>59680</v>
+        <v>29535</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="N13" s="7">
-        <v>147120</v>
+        <v>76603</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3455,7 +3464,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3470,7 +3479,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3485,7 +3494,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>87440</v>
+        <v>47068</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3509,10 +3518,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>59680</v>
+        <v>29535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3524,10 +3533,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="N15" s="7">
-        <v>147120</v>
+        <v>76603</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3556,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -3571,7 +3580,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3610,7 +3619,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3625,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3726,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -3741,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3780,7 +3789,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3795,7 +3804,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,10 +3872,10 @@
         <v>53617</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3881,7 +3890,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3893,10 +3902,10 @@
         <v>99997</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3914,13 +3923,13 @@
         <v>813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3935,7 +3944,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3944,13 +3953,13 @@
         <v>813</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,7 +4030,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -4051,7 +4060,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -4075,7 +4084,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4105,7 +4114,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,10 +4182,10 @@
         <v>330639</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -4191,7 +4200,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -4206,7 +4215,7 @@
         <v>86</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4224,13 +4233,13 @@
         <v>813</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4245,7 +4254,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4260,7 +4269,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +4349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6295198F-C62F-4EF6-A672-BFAE66272127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B0BCAE-534F-4655-98FA-1BAAABE13A25}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,7 +4366,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4464,10 +4473,10 @@
         <v>57594</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4482,7 +4491,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4494,10 +4503,10 @@
         <v>98478</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4515,13 +4524,13 @@
         <v>983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4536,7 +4545,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4545,13 +4554,13 @@
         <v>983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,7 +4631,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4637,7 +4646,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4652,7 +4661,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -4676,7 +4685,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4691,7 +4700,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4706,7 +4715,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4801,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4846,7 +4855,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4932,7 +4941,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4962,7 +4971,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -4986,7 +4995,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5016,7 +5025,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +5096,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -5102,7 +5111,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5117,7 +5126,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -5141,7 +5150,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5156,7 +5165,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5171,7 +5180,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,10 +5248,10 @@
         <v>21399</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -5269,10 +5278,10 @@
         <v>28825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5290,13 +5299,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5320,13 +5329,13 @@
         <v>1035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5409,10 +5418,10 @@
         <v>54570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5424,10 +5433,10 @@
         <v>132912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5451,7 +5460,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5460,13 +5469,13 @@
         <v>1112</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -5475,13 +5484,13 @@
         <v>1112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,10 +5558,10 @@
         <v>37402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5567,7 +5576,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5579,10 +5588,10 @@
         <v>58802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5600,13 +5609,13 @@
         <v>1872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5621,7 +5630,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5630,13 +5639,13 @@
         <v>1872</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5713,13 @@
         <v>346111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -5719,10 +5728,10 @@
         <v>215186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5734,13 +5743,13 @@
         <v>561297</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5764,13 @@
         <v>3890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5770,13 +5779,13 @@
         <v>1112</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -5785,13 +5794,13 @@
         <v>5002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,7 +5880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E93764C-D9D5-4636-88E2-F69A7CF75F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC0837-58CF-4243-A02A-27E1FDEF6FB9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5888,7 +5897,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5992,13 +6001,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -6007,13 +6016,13 @@
         <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -6022,13 +6031,13 @@
         <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -6052,7 +6061,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6067,7 +6076,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6082,7 +6091,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6103,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -6109,7 +6118,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -6124,7 +6133,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -6147,13 +6156,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -6162,31 +6171,31 @@
         <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>46915</v>
+        <v>43822</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>92916</v>
+        <v>90102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,37 +6216,37 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1706</v>
+        <v>1621</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>1706</v>
+        <v>1621</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,7 +6258,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -6264,7 +6273,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -6279,7 +6288,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -6302,13 +6311,13 @@
         <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>49703</v>
+        <v>48492</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -6317,13 +6326,13 @@
         <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -6332,13 +6341,13 @@
         <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>98624</v>
+        <v>94419</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -6353,16 +6362,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1027</v>
+        <v>1003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6377,22 +6386,22 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1027</v>
+        <v>1003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,7 +6413,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -6419,7 +6428,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -6434,7 +6443,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>99651</v>
+        <v>95422</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -6457,13 +6466,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -6472,13 +6481,13 @@
         <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -6487,7 +6496,7 @@
         <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -6517,7 +6526,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6532,7 +6541,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6559,7 +6568,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -6574,7 +6583,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -6589,7 +6598,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -6612,13 +6621,13 @@
         <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>18673</v>
+        <v>17045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -6627,13 +6636,13 @@
         <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>11526</v>
+        <v>10567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -6642,13 +6651,13 @@
         <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>30198</v>
+        <v>27613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -6663,46 +6672,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>769</v>
+        <v>712</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1224</v>
+        <v>1130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,7 +6723,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>19442</v>
+        <v>17757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -6729,7 +6738,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -6744,7 +6753,7 @@
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>31422</v>
+        <v>28743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -6767,13 +6776,13 @@
         <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -6782,13 +6791,13 @@
         <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>31525</v>
+        <v>29333</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -6797,13 +6806,13 @@
         <v>88</v>
       </c>
       <c r="N19" s="7">
-        <v>64231</v>
+        <v>60949</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -6827,37 +6836,37 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>946</v>
+        <v>882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>946</v>
+        <v>882</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,7 +6878,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -6884,7 +6893,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>15</v>
@@ -6899,7 +6908,7 @@
         <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>
@@ -6922,13 +6931,13 @@
         <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -6937,13 +6946,13 @@
         <v>103</v>
       </c>
       <c r="I22" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -6952,13 +6961,13 @@
         <v>173</v>
       </c>
       <c r="N22" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -6982,7 +6991,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6997,7 +7006,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7012,7 +7021,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,7 +7033,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>15</v>
@@ -7039,7 +7048,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>15</v>
@@ -7054,7 +7063,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>15</v>
@@ -7077,13 +7086,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="7">
-        <v>65872</v>
+        <v>55776</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -7092,13 +7101,13 @@
         <v>68</v>
       </c>
       <c r="I25" s="7">
-        <v>66310</v>
+        <v>54016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -7107,7 +7116,7 @@
         <v>124</v>
       </c>
       <c r="N25" s="7">
-        <v>132181</v>
+        <v>109792</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>260</v>
@@ -7128,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>1184</v>
+        <v>981</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>262</v>
@@ -7143,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>826</v>
+        <v>694</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>264</v>
@@ -7152,22 +7161,22 @@
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>2010</v>
+        <v>1675</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,7 +7188,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>15</v>
@@ -7194,7 +7203,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>15</v>
@@ -7209,7 +7218,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>15</v>
@@ -7232,46 +7241,46 @@
         <v>335</v>
       </c>
       <c r="D28" s="7">
-        <v>350039</v>
+        <v>336809</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="H28" s="7">
         <v>468</v>
       </c>
       <c r="I28" s="7">
-        <v>357279</v>
+        <v>350600</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M28" s="7">
         <v>803</v>
       </c>
       <c r="N28" s="7">
-        <v>707316</v>
+        <v>687409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,46 +7292,46 @@
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>2979</v>
+        <v>2696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>3932</v>
+        <v>3615</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
       </c>
       <c r="N29" s="7">
-        <v>6912</v>
+        <v>6311</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,7 +7343,7 @@
         <v>338</v>
       </c>
       <c r="D30" s="7">
-        <v>353018</v>
+        <v>339505</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>15</v>
@@ -7349,7 +7358,7 @@
         <v>474</v>
       </c>
       <c r="I30" s="7">
-        <v>361211</v>
+        <v>354215</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -7364,7 +7373,7 @@
         <v>812</v>
       </c>
       <c r="N30" s="7">
-        <v>714228</v>
+        <v>693720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>15</v>
